--- a/ЗАВОДЫ/Новые Фермы/2025/05,25/20,05,25 на 26,05,25/заказ НФ 20,05,25 на 26,05,25.xlsx
+++ b/ЗАВОДЫ/Новые Фермы/2025/05,25/20,05,25 на 26,05,25/заказ НФ 20,05,25 на 26,05,25.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Новые Фермы\2025\05,25\20,05,25 на 26,05,25\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{454EDB10-960F-49A0-8593-5D11F5AD59B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{997F2224-0099-4C9D-AE1C-4F2E85A95326}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Сосиски Кавказские вес.</t>
   </si>
@@ -70,13 +70,16 @@
   </si>
   <si>
     <t>Алешин</t>
+  </si>
+  <si>
+    <t>ВЕС</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -91,6 +94,15 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -310,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -365,6 +377,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -645,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -659,7 +672,7 @@
     <col min="5" max="5" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
@@ -675,7 +688,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="14"/>
       <c r="B2" s="18"/>
       <c r="C2" s="1" t="s">
@@ -688,8 +701,11 @@
         <v>9</v>
       </c>
       <c r="F2" s="16"/>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -712,8 +728,12 @@
       <c r="H3" t="s">
         <v>10</v>
       </c>
+      <c r="K3">
+        <f>F3</f>
+        <v>3200</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>1</v>
       </c>
@@ -735,6 +755,19 @@
       </c>
       <c r="H4" t="s">
         <v>11</v>
+      </c>
+      <c r="J4">
+        <v>0.38</v>
+      </c>
+      <c r="K4">
+        <f>F4*J4</f>
+        <v>1409.04</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="22">
+        <f>SUM(K3:K4)</f>
+        <v>4609.04</v>
       </c>
     </row>
   </sheetData>
